--- a/Results_Collection/VGG11 pretrained results/RDM_Evaluation_Results/R2_squared_linear_regression/R² and noise ceilling results.xlsx
+++ b/Results_Collection/VGG11 pretrained results/RDM_Evaluation_Results/R2_squared_linear_regression/R² and noise ceilling results.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\PycharmProjects\untitled2\Numerosity-in-Neural-Networks\Results_Collection\VGG11 pretrained results\RDM_Evaluation_Results\R2_squared_linear_regression\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCA8B9B-30C0-4EB2-A5FE-84C53D753D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="26">
   <si>
     <t>ROI</t>
   </si>
@@ -86,13 +103,19 @@
   </si>
   <si>
     <t>fc7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG NC </t>
+  </si>
+  <si>
+    <t>AVG NC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,15 +174,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -201,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +264,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,6 +316,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,14 +509,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="S50" sqref="S50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -483,19 +552,19 @@
         <v>0.1992942734123756</v>
       </c>
       <c r="D2">
-        <v>63.74336123355783</v>
+        <v>63.743361233557827</v>
       </c>
       <c r="E2">
-        <v>7.061754761127235E-06</v>
+        <v>7.0617547611272349E-6</v>
       </c>
       <c r="F2">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G2">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -503,22 +572,22 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>0.2217297297941823</v>
+        <v>0.22172972979418229</v>
       </c>
       <c r="D3">
-        <v>70.91923927610489</v>
+        <v>70.919239276104889</v>
       </c>
       <c r="E3">
-        <v>5.460933012418211E-06</v>
+        <v>5.4609330124182111E-6</v>
       </c>
       <c r="F3">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G3">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -529,19 +598,19 @@
         <v>0.2424715103341801</v>
       </c>
       <c r="D4">
-        <v>77.55340285215753</v>
+        <v>77.553402852157532</v>
       </c>
       <c r="E4">
-        <v>5.017202370922935E-06</v>
+        <v>5.0172023709229346E-6</v>
       </c>
       <c r="F4">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G4">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -552,19 +621,19 @@
         <v>0.1468624323461695</v>
       </c>
       <c r="D5">
-        <v>46.97327683525656</v>
+        <v>46.973276835256563</v>
       </c>
       <c r="E5">
-        <v>9.679045259476354E-06</v>
+        <v>9.6790452594763543E-6</v>
       </c>
       <c r="F5">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G5">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -572,22 +641,22 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>0.1807833133486997</v>
+        <v>0.18078331334869971</v>
       </c>
       <c r="D6">
-        <v>57.82271537697908</v>
+        <v>57.822715376979083</v>
       </c>
       <c r="E6">
-        <v>7.769017116444385E-06</v>
+        <v>7.7690171164443852E-6</v>
       </c>
       <c r="F6">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G6">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -598,19 +667,19 @@
         <v>0.1866373071294308</v>
       </c>
       <c r="D7">
-        <v>59.69508849555846</v>
+        <v>59.695088495558458</v>
       </c>
       <c r="E7">
-        <v>7.609247332804216E-06</v>
+        <v>7.6092473328042164E-6</v>
       </c>
       <c r="F7">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G7">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -618,22 +687,22 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.1363558355579896</v>
+        <v>0.13635583555798961</v>
       </c>
       <c r="D8">
         <v>43.61278993848304</v>
       </c>
       <c r="E8">
-        <v>1.018535846789883E-05</v>
+        <v>1.0185358467898831E-5</v>
       </c>
       <c r="F8">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G8">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -641,22 +710,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>0.2189846933919475</v>
+        <v>0.21898469339194751</v>
       </c>
       <c r="D9">
-        <v>58.22112226765559</v>
+        <v>58.221122267655588</v>
       </c>
       <c r="E9">
-        <v>4.525956752225362E-06</v>
+        <v>4.5259567522253618E-6</v>
       </c>
       <c r="F9">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G9">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -664,22 +733,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>0.2580953903206735</v>
+        <v>0.25809539032067352</v>
       </c>
       <c r="D10">
-        <v>68.61942286387578</v>
+        <v>68.619422863875783</v>
       </c>
       <c r="E10">
-        <v>3.099591164396034E-06</v>
+        <v>3.0995911643960341E-6</v>
       </c>
       <c r="F10">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G10">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -690,19 +759,19 @@
         <v>0.2965859133890803</v>
       </c>
       <c r="D11">
-        <v>78.85283879354886</v>
+        <v>78.852838793548855</v>
       </c>
       <c r="E11">
-        <v>1.728275695410347E-06</v>
+        <v>1.7282756954103471E-6</v>
       </c>
       <c r="F11">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G11">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -710,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>0.2046145602621391</v>
+        <v>0.20461456026213909</v>
       </c>
       <c r="D12">
-        <v>54.40055716333755</v>
+        <v>54.400557163337552</v>
       </c>
       <c r="E12">
-        <v>2.550482102057863E-06</v>
+        <v>2.550482102057863E-6</v>
       </c>
       <c r="F12">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G12">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -733,22 +802,22 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>0.2387365476594573</v>
+        <v>0.23873654765945729</v>
       </c>
       <c r="D13">
-        <v>63.47251726019662</v>
+        <v>63.472517260196618</v>
       </c>
       <c r="E13">
-        <v>1.385979711306879E-06</v>
+        <v>1.3859797113068789E-6</v>
       </c>
       <c r="F13">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G13">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -759,19 +828,19 @@
         <v>0.2374252571992935</v>
       </c>
       <c r="D14">
-        <v>63.12388649049728</v>
+        <v>63.123886490497277</v>
       </c>
       <c r="E14">
-        <v>1.007633214956378E-06</v>
+        <v>1.007633214956378E-6</v>
       </c>
       <c r="F14">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G14">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -779,22 +848,22 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>0.1687756395471278</v>
+        <v>0.16877563954712779</v>
       </c>
       <c r="D15">
-        <v>44.87211865665689</v>
+        <v>44.872118656656887</v>
       </c>
       <c r="E15">
-        <v>2.844684721071709E-07</v>
+        <v>2.8446847210717092E-7</v>
       </c>
       <c r="F15">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G15">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -802,22 +871,22 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>0.1805325938804702</v>
+        <v>0.18053259388047019</v>
       </c>
       <c r="D16">
-        <v>59.38339676460485</v>
+        <v>59.383396764604854</v>
       </c>
       <c r="E16">
-        <v>1.226476626563065E-05</v>
+        <v>1.2264766265630651E-5</v>
       </c>
       <c r="F16">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G16">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -825,22 +894,22 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>0.2172540066883301</v>
+        <v>0.21725400668833009</v>
       </c>
       <c r="D17">
-        <v>71.4623359725009</v>
+        <v>71.462335972500895</v>
       </c>
       <c r="E17">
-        <v>9.602854989393788E-06</v>
+        <v>9.6028549893937882E-6</v>
       </c>
       <c r="F17">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G17">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -848,22 +917,22 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0.2510160557011932</v>
+        <v>0.25101605570119317</v>
       </c>
       <c r="D18">
         <v>82.56783835864799</v>
       </c>
       <c r="E18">
-        <v>5.982561921683401E-06</v>
+        <v>5.9825619216834009E-6</v>
       </c>
       <c r="F18">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G18">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -871,22 +940,22 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>0.1816966119099225</v>
+        <v>0.18169661190992251</v>
       </c>
       <c r="D19">
-        <v>59.766282441913</v>
+        <v>59.766282441912999</v>
       </c>
       <c r="E19">
-        <v>1.155351154107205E-05</v>
+        <v>1.155351154107205E-5</v>
       </c>
       <c r="F19">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G19">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -897,19 +966,19 @@
         <v>0.2070873990244971</v>
       </c>
       <c r="D20">
-        <v>68.11818806172977</v>
+        <v>68.118188061729768</v>
       </c>
       <c r="E20">
-        <v>5.028443150573078E-06</v>
+        <v>5.028443150573078E-6</v>
       </c>
       <c r="F20">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G20">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -920,19 +989,19 @@
         <v>0.2057282583544075</v>
       </c>
       <c r="D21">
-        <v>67.67111981806248</v>
+        <v>67.671119818062479</v>
       </c>
       <c r="E21">
-        <v>3.730166104206734E-06</v>
+        <v>3.7301661042067338E-6</v>
       </c>
       <c r="F21">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G21">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -940,22 +1009,22 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>0.1464626492902603</v>
+        <v>0.14646264929026029</v>
       </c>
       <c r="D22">
         <v>48.1766169036337</v>
       </c>
       <c r="E22">
-        <v>1.725000911268314E-06</v>
+        <v>1.725000911268314E-6</v>
       </c>
       <c r="F22">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G22">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -963,22 +1032,22 @@
         <v>17</v>
       </c>
       <c r="C23">
-        <v>0.06170167809897231</v>
+        <v>6.1701678098972312E-2</v>
       </c>
       <c r="D23">
-        <v>69.74483609750845</v>
+        <v>69.744836097508454</v>
       </c>
       <c r="E23">
-        <v>0.0009927218753053124</v>
+        <v>9.927218753053124E-4</v>
       </c>
       <c r="F23">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G23">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -986,22 +1055,22 @@
         <v>18</v>
       </c>
       <c r="C24">
-        <v>0.07734136433956314</v>
+        <v>7.7341364339563137E-2</v>
       </c>
       <c r="D24">
-        <v>87.42324269962374</v>
+        <v>87.423242699623742</v>
       </c>
       <c r="E24">
-        <v>0.0005563014946870049</v>
+        <v>5.5630149468700494E-4</v>
       </c>
       <c r="F24">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G24">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1009,22 +1078,22 @@
         <v>19</v>
       </c>
       <c r="C25">
-        <v>0.09258898296730286</v>
+        <v>9.2588982967302863E-2</v>
       </c>
       <c r="D25">
         <v>104.6584734880508</v>
       </c>
       <c r="E25">
-        <v>0.0002764379859611052</v>
+        <v>2.7643798596110522E-4</v>
       </c>
       <c r="F25">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G25">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1032,22 +1101,22 @@
         <v>20</v>
       </c>
       <c r="C26">
-        <v>0.0708991463151955</v>
+        <v>7.0899146315195505E-2</v>
       </c>
       <c r="D26">
-        <v>80.14124561206935</v>
+        <v>80.141245612069355</v>
       </c>
       <c r="E26">
-        <v>7.303549584690292E-05</v>
+        <v>7.303549584690292E-5</v>
       </c>
       <c r="F26">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G26">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1055,22 +1124,22 @@
         <v>21</v>
       </c>
       <c r="C27">
-        <v>0.08189970302382336</v>
+        <v>8.1899703023823364E-2</v>
       </c>
       <c r="D27">
-        <v>92.57578626417158</v>
+        <v>92.575786264171583</v>
       </c>
       <c r="E27">
-        <v>0.0001589860581305261</v>
+        <v>1.5898605813052609E-4</v>
       </c>
       <c r="F27">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G27">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1078,22 +1147,22 @@
         <v>22</v>
       </c>
       <c r="C28">
-        <v>0.08344386243247388</v>
+        <v>8.3443862432473884E-2</v>
       </c>
       <c r="D28">
-        <v>94.32123546722251</v>
+        <v>94.321235467222508</v>
       </c>
       <c r="E28">
-        <v>0.0001819362558430513</v>
+        <v>1.8193625584305131E-4</v>
       </c>
       <c r="F28">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G28">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1101,22 +1170,22 @@
         <v>23</v>
       </c>
       <c r="C29">
-        <v>0.05856100507822435</v>
+        <v>5.856100507822435E-2</v>
       </c>
       <c r="D29">
-        <v>66.19475882543533</v>
+        <v>66.194758825435329</v>
       </c>
       <c r="E29">
-        <v>0.0003808925515874825</v>
+        <v>3.8089255158748247E-4</v>
       </c>
       <c r="F29">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G29">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1124,22 +1193,22 @@
         <v>17</v>
       </c>
       <c r="C30">
-        <v>0.02858084365099984</v>
+        <v>2.8580843650999839E-2</v>
       </c>
       <c r="D30">
-        <v>25.86421051691977</v>
+        <v>25.864210516919769</v>
       </c>
       <c r="E30">
-        <v>0.0005273156304614466</v>
+        <v>5.273156304614466E-4</v>
       </c>
       <c r="F30">
         <v>0.1105034450299688</v>
       </c>
       <c r="G30">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1147,22 +1216,22 @@
         <v>18</v>
       </c>
       <c r="C31">
-        <v>0.03889494361582828</v>
+        <v>3.8894943615828279E-2</v>
       </c>
       <c r="D31">
-        <v>35.19794663893048</v>
+        <v>35.197946638930482</v>
       </c>
       <c r="E31">
-        <v>0.0004166048457438272</v>
+        <v>4.1660484574382718E-4</v>
       </c>
       <c r="F31">
         <v>0.1105034450299688</v>
       </c>
       <c r="G31">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1170,22 +1239,22 @@
         <v>19</v>
       </c>
       <c r="C32">
-        <v>0.0507382277439042</v>
+        <v>5.0738227743904199E-2</v>
       </c>
       <c r="D32">
-        <v>45.91551668832034</v>
+        <v>45.915516688320338</v>
       </c>
       <c r="E32">
-        <v>0.000373201960100658</v>
+        <v>3.7320196010065797E-4</v>
       </c>
       <c r="F32">
         <v>0.1105034450299688</v>
       </c>
       <c r="G32">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1193,22 +1262,22 @@
         <v>20</v>
       </c>
       <c r="C33">
-        <v>0.03620115415693021</v>
+        <v>3.6201154156930211E-2</v>
       </c>
       <c r="D33">
-        <v>32.76020412495953</v>
+        <v>32.760204124959529</v>
       </c>
       <c r="E33">
-        <v>0.001178353472542766</v>
+        <v>1.178353472542766E-3</v>
       </c>
       <c r="F33">
         <v>0.1105034450299688</v>
       </c>
       <c r="G33">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1216,22 +1285,22 @@
         <v>21</v>
       </c>
       <c r="C34">
-        <v>0.04287217109519183</v>
+        <v>4.2872171095191827E-2</v>
       </c>
       <c r="D34">
-        <v>38.79713531425632</v>
+        <v>38.797135314256323</v>
       </c>
       <c r="E34">
-        <v>0.0005948391113190228</v>
+        <v>5.9483911131902279E-4</v>
       </c>
       <c r="F34">
         <v>0.1105034450299688</v>
       </c>
       <c r="G34">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1239,22 +1308,22 @@
         <v>22</v>
       </c>
       <c r="C35">
-        <v>0.04579061071680839</v>
+        <v>4.5790610716808393E-2</v>
       </c>
       <c r="D35">
-        <v>41.43817480476729</v>
+        <v>41.438174804767293</v>
       </c>
       <c r="E35">
-        <v>0.0003578605816092637</v>
+        <v>3.5786058160926373E-4</v>
       </c>
       <c r="F35">
         <v>0.1105034450299688</v>
       </c>
       <c r="G35">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1262,22 +1331,22 @@
         <v>23</v>
       </c>
       <c r="C36">
-        <v>0.03547306073095435</v>
+        <v>3.5473060730954353E-2</v>
       </c>
       <c r="D36">
-        <v>32.1013165891199</v>
+        <v>32.101316589119897</v>
       </c>
       <c r="E36">
-        <v>9.556971902784581E-05</v>
+        <v>9.5569719027845815E-5</v>
       </c>
       <c r="F36">
         <v>0.1105034450299688</v>
       </c>
       <c r="G36">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1285,22 +1354,22 @@
         <v>17</v>
       </c>
       <c r="C37">
-        <v>0.02883292659239864</v>
+        <v>2.8832926592398639E-2</v>
       </c>
       <c r="D37">
         <v>20.60591538187953</v>
       </c>
       <c r="E37">
-        <v>7.566988243564793E-05</v>
+        <v>7.5669882435647933E-5</v>
       </c>
       <c r="F37">
         <v>0.1399254828434062</v>
       </c>
       <c r="G37">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -1308,22 +1377,22 @@
         <v>18</v>
       </c>
       <c r="C38">
-        <v>0.03804581682949259</v>
+        <v>3.8045816829492589E-2</v>
       </c>
       <c r="D38">
-        <v>27.19005577566635</v>
+        <v>27.190055775666352</v>
       </c>
       <c r="E38">
-        <v>6.286332276928192E-05</v>
+        <v>6.2863322769281921E-5</v>
       </c>
       <c r="F38">
         <v>0.1399254828434062</v>
       </c>
       <c r="G38">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1331,22 +1400,22 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>0.04796567366117678</v>
+        <v>4.796567366117678E-2</v>
       </c>
       <c r="D39">
-        <v>34.27944123291415</v>
+        <v>34.279441232914152</v>
       </c>
       <c r="E39">
-        <v>7.308873362076025E-05</v>
+        <v>7.3088733620760253E-5</v>
       </c>
       <c r="F39">
         <v>0.1399254828434062</v>
       </c>
       <c r="G39">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -1354,22 +1423,22 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>0.02724121873784836</v>
+        <v>2.724121873784836E-2</v>
       </c>
       <c r="D40">
         <v>19.46837572705369</v>
       </c>
       <c r="E40">
-        <v>0.0001205143927239634</v>
+        <v>1.2051439272396339E-4</v>
       </c>
       <c r="F40">
         <v>0.1399254828434062</v>
       </c>
       <c r="G40">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1377,22 +1446,22 @@
         <v>21</v>
       </c>
       <c r="C41">
-        <v>0.03490539029401715</v>
+        <v>3.4905390294017152E-2</v>
       </c>
       <c r="D41">
         <v>24.94569937134365</v>
       </c>
       <c r="E41">
-        <v>0.0001038887196376782</v>
+        <v>1.038887196376782E-4</v>
       </c>
       <c r="F41">
         <v>0.1399254828434062</v>
       </c>
       <c r="G41">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1400,22 +1469,22 @@
         <v>22</v>
       </c>
       <c r="C42">
-        <v>0.03984598128571619</v>
+        <v>3.9845981285716189E-2</v>
       </c>
       <c r="D42">
-        <v>28.47657229834879</v>
+        <v>28.476572298348788</v>
       </c>
       <c r="E42">
-        <v>0.0001433856651930847</v>
+        <v>1.4338566519308469E-4</v>
       </c>
       <c r="F42">
         <v>0.1399254828434062</v>
       </c>
       <c r="G42">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -1423,22 +1492,22 @@
         <v>23</v>
       </c>
       <c r="C43">
-        <v>0.03473261556921212</v>
+        <v>3.4732615569212123E-2</v>
       </c>
       <c r="D43">
-        <v>24.82222313149506</v>
+        <v>24.822223131495061</v>
       </c>
       <c r="E43">
-        <v>0.0006993651137741072</v>
+        <v>6.9936511377410718E-4</v>
       </c>
       <c r="F43">
         <v>0.1399254828434062</v>
       </c>
       <c r="G43">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1446,22 +1515,22 @@
         <v>17</v>
       </c>
       <c r="C44">
-        <v>0.01641185378269722</v>
+        <v>1.641185378269722E-2</v>
       </c>
       <c r="D44">
         <v>15.59406150973572</v>
       </c>
       <c r="E44">
-        <v>0.001384312227106791</v>
+        <v>1.384312227106791E-3</v>
       </c>
       <c r="F44">
         <v>0.1052442545032347</v>
       </c>
       <c r="G44">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1469,22 +1538,22 @@
         <v>18</v>
       </c>
       <c r="C45">
-        <v>0.02172821410787367</v>
+        <v>2.1728214107873671E-2</v>
       </c>
       <c r="D45">
         <v>20.64551096915779</v>
       </c>
       <c r="E45">
-        <v>0.00111748136466117</v>
+        <v>1.11748136466117E-3</v>
       </c>
       <c r="F45">
         <v>0.1052442545032347</v>
       </c>
       <c r="G45">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1492,22 +1561,22 @@
         <v>19</v>
       </c>
       <c r="C46">
-        <v>0.02877169192916476</v>
+        <v>2.8771691929164761E-2</v>
       </c>
       <c r="D46">
         <v>27.33801675442573</v>
       </c>
       <c r="E46">
-        <v>0.001343937150277629</v>
+        <v>1.343937150277629E-3</v>
       </c>
       <c r="F46">
         <v>0.1052442545032347</v>
       </c>
       <c r="G46">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1515,22 +1584,22 @@
         <v>20</v>
       </c>
       <c r="C47">
-        <v>0.01710178915860427</v>
+        <v>1.7101789158604271E-2</v>
       </c>
       <c r="D47">
-        <v>16.24961784310861</v>
+        <v>16.249617843108609</v>
       </c>
       <c r="E47">
-        <v>0.001815443709883573</v>
+        <v>1.8154437098835731E-3</v>
       </c>
       <c r="F47">
         <v>0.1052442545032347</v>
       </c>
       <c r="G47">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -1538,22 +1607,22 @@
         <v>21</v>
       </c>
       <c r="C48">
-        <v>0.02142781886316062</v>
+        <v>2.1427818863160621E-2</v>
       </c>
       <c r="D48">
-        <v>20.36008422911299</v>
+        <v>20.360084229112989</v>
       </c>
       <c r="E48">
-        <v>0.001777672728207355</v>
+        <v>1.777672728207355E-3</v>
       </c>
       <c r="F48">
         <v>0.1052442545032347</v>
       </c>
       <c r="G48">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1561,22 +1630,22 @@
         <v>22</v>
       </c>
       <c r="C49">
-        <v>0.0248846345409998</v>
+        <v>2.48846345409998E-2</v>
       </c>
       <c r="D49">
-        <v>23.64464897248616</v>
+        <v>23.644648972486159</v>
       </c>
       <c r="E49">
-        <v>0.001936227992721499</v>
+        <v>1.936227992721499E-3</v>
       </c>
       <c r="F49">
         <v>0.1052442545032347</v>
       </c>
       <c r="G49">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1584,22 +1653,25 @@
         <v>23</v>
       </c>
       <c r="C50">
-        <v>0.0241215543625523</v>
+        <v>2.4121554362552301E-2</v>
       </c>
       <c r="D50">
-        <v>22.9195925957278</v>
+        <v>22.919592595727799</v>
       </c>
       <c r="E50">
-        <v>0.004514519044788928</v>
+        <v>4.5145190447889276E-3</v>
       </c>
       <c r="F50">
         <v>0.1052442545032347</v>
       </c>
       <c r="G50">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+      <c r="J50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -1607,22 +1679,26 @@
         <v>17</v>
       </c>
       <c r="C51">
-        <v>0.2234617295696935</v>
+        <v>0.22346172956969351</v>
       </c>
       <c r="D51">
-        <v>58.13722453852248</v>
+        <v>58.137224538522482</v>
       </c>
       <c r="E51">
-        <v>3.104817431465276E-06</v>
+        <v>3.1048174314652762E-6</v>
       </c>
       <c r="F51">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G51">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+      <c r="J51">
+        <f>SUM(D51:D57) /7</f>
+        <v>60.844582063346543</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -1630,22 +1706,22 @@
         <v>18</v>
       </c>
       <c r="C52">
-        <v>0.2622970536862697</v>
+        <v>0.26229705368626971</v>
       </c>
       <c r="D52">
-        <v>68.24086941113381</v>
+        <v>68.240869411133815</v>
       </c>
       <c r="E52">
-        <v>2.261393765570922E-06</v>
+        <v>2.261393765570922E-6</v>
       </c>
       <c r="F52">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G52">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -1653,22 +1729,22 @@
         <v>19</v>
       </c>
       <c r="C53">
-        <v>0.2998153691678414</v>
+        <v>0.29981536916784141</v>
       </c>
       <c r="D53">
-        <v>78.00187294251917</v>
+        <v>78.001872942519171</v>
       </c>
       <c r="E53">
-        <v>1.447517249714102E-06</v>
+        <v>1.447517249714102E-6</v>
       </c>
       <c r="F53">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G53">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1676,22 +1752,22 @@
         <v>20</v>
       </c>
       <c r="C54">
-        <v>0.2017801277050749</v>
+        <v>0.20178012770507489</v>
       </c>
       <c r="D54">
         <v>52.4964011260059</v>
       </c>
       <c r="E54">
-        <v>2.56820222540543E-06</v>
+        <v>2.5682022254054299E-6</v>
       </c>
       <c r="F54">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G54">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -1702,19 +1778,19 @@
         <v>0.2373941160902221</v>
       </c>
       <c r="D55">
-        <v>61.76196281053537</v>
+        <v>61.761962810535373</v>
       </c>
       <c r="E55">
-        <v>1.50507196173194E-06</v>
+        <v>1.5050719617319401E-6</v>
       </c>
       <c r="F55">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G55">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -1728,16 +1804,16 @@
         <v>62.32614204261273</v>
       </c>
       <c r="E56">
-        <v>1.184284158911354E-06</v>
+        <v>1.184284158911354E-6</v>
       </c>
       <c r="F56">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G56">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -1745,22 +1821,25 @@
         <v>23</v>
       </c>
       <c r="C57">
-        <v>0.1727648484604696</v>
+        <v>0.17276484846046961</v>
       </c>
       <c r="D57">
-        <v>44.94760157209639</v>
+        <v>44.947601572096389</v>
       </c>
       <c r="E57">
-        <v>5.611799222240761E-07</v>
+        <v>5.6117992222407614E-7</v>
       </c>
       <c r="F57">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G57">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -1768,22 +1847,26 @@
         <v>17</v>
       </c>
       <c r="C58">
-        <v>0.04928564919950783</v>
+        <v>4.9285649199507828E-2</v>
       </c>
       <c r="D58">
-        <v>37.26963013856547</v>
+        <v>37.269630138565468</v>
       </c>
       <c r="E58">
-        <v>0.0001937797547819004</v>
+        <v>1.9377975478190041E-4</v>
       </c>
       <c r="F58">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G58">
         <v>0.2010336813249024</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="J58">
+        <f>SUM(D58:D64) /7</f>
+        <v>49.912375078547988</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -1791,22 +1874,22 @@
         <v>18</v>
       </c>
       <c r="C59">
-        <v>0.06522572783326708</v>
+        <v>6.5225727833267078E-2</v>
       </c>
       <c r="D59">
-        <v>49.32346010142187</v>
+        <v>49.323460101421873</v>
       </c>
       <c r="E59">
-        <v>7.297598948180999E-05</v>
+        <v>7.297598948180999E-5</v>
       </c>
       <c r="F59">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G59">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -1814,22 +1897,22 @@
         <v>19</v>
       </c>
       <c r="C60">
-        <v>0.08315366917293257</v>
+        <v>8.3153669172932571E-2</v>
       </c>
       <c r="D60">
-        <v>62.8805046717489</v>
+        <v>62.880504671748902</v>
       </c>
       <c r="E60">
-        <v>2.247503244992499E-05</v>
+        <v>2.2475032449924991E-5</v>
       </c>
       <c r="F60">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G60">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -1837,22 +1920,22 @@
         <v>20</v>
       </c>
       <c r="C61">
-        <v>0.06268577468903129</v>
+        <v>6.268577468903129E-2</v>
       </c>
       <c r="D61">
-        <v>47.40275669601964</v>
+        <v>47.402756696019637</v>
       </c>
       <c r="E61">
-        <v>2.067813767812082E-05</v>
+        <v>2.0678137678120821E-5</v>
       </c>
       <c r="F61">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G61">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -1860,22 +1943,22 @@
         <v>21</v>
       </c>
       <c r="C62">
-        <v>0.07146703030972443</v>
+        <v>7.1467030309724427E-2</v>
       </c>
       <c r="D62">
-        <v>54.04311052012429</v>
+        <v>54.043110520124287</v>
       </c>
       <c r="E62">
-        <v>2.681426692267038E-05</v>
+        <v>2.6814266922670379E-5</v>
       </c>
       <c r="F62">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G62">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -1883,22 +1966,22 @@
         <v>22</v>
       </c>
       <c r="C63">
-        <v>0.07436638409083106</v>
+        <v>7.4366384090831059E-2</v>
       </c>
       <c r="D63">
-        <v>56.23559139067707</v>
+        <v>56.235591390677072</v>
       </c>
       <c r="E63">
-        <v>2.230754001856583E-05</v>
+        <v>2.2307540018565829E-5</v>
       </c>
       <c r="F63">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G63">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -1906,22 +1989,25 @@
         <v>23</v>
       </c>
       <c r="C64">
-        <v>0.05584735980847764</v>
+        <v>5.5847359808477638E-2</v>
       </c>
       <c r="D64">
-        <v>42.23157203127869</v>
+        <v>42.231572031278688</v>
       </c>
       <c r="E64">
-        <v>1.746759963659951E-05</v>
+        <v>1.746759963659951E-5</v>
       </c>
       <c r="F64">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G64">
         <v>0.2010336813249024</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="J64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -1929,22 +2015,26 @@
         <v>17</v>
       </c>
       <c r="C65">
-        <v>0.02467296718788331</v>
+        <v>2.467296718788331E-2</v>
       </c>
       <c r="D65">
         <v>17.6101790986292</v>
       </c>
       <c r="E65">
-        <v>0.0002081699104797992</v>
+        <v>2.0816991047979921E-4</v>
       </c>
       <c r="F65">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G65">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+      <c r="J65">
+        <f>SUM(D65:D71) /7</f>
+        <v>22.345039188305055</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -1952,22 +2042,22 @@
         <v>18</v>
       </c>
       <c r="C66">
-        <v>0.03256744106539176</v>
+        <v>3.2567441065391757E-2</v>
       </c>
       <c r="D66">
-        <v>23.24481143991674</v>
+        <v>23.244811439916742</v>
       </c>
       <c r="E66">
-        <v>0.0001577856872113036</v>
+        <v>1.5778568721130359E-4</v>
       </c>
       <c r="F66">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G66">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -1975,22 +2065,22 @@
         <v>19</v>
       </c>
       <c r="C67">
-        <v>0.04166042776332387</v>
+        <v>4.1660427763323869E-2</v>
       </c>
       <c r="D67">
-        <v>29.73487496055708</v>
+        <v>29.734874960557079</v>
       </c>
       <c r="E67">
-        <v>0.0001610303201910183</v>
+        <v>1.6103032019101831E-4</v>
       </c>
       <c r="F67">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G67">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -1998,22 +2088,22 @@
         <v>20</v>
       </c>
       <c r="C68">
-        <v>0.02350240602774352</v>
+        <v>2.3502406027743519E-2</v>
       </c>
       <c r="D68">
-        <v>16.77469824547572</v>
+        <v>16.774698245475719</v>
       </c>
       <c r="E68">
-        <v>0.0002380684560506411</v>
+        <v>2.380684560506411E-4</v>
       </c>
       <c r="F68">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G68">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2021,22 +2111,22 @@
         <v>21</v>
       </c>
       <c r="C69">
-        <v>0.03023341675044984</v>
+        <v>3.023341675044984E-2</v>
       </c>
       <c r="D69">
-        <v>21.57891589141264</v>
+        <v>21.578915891412642</v>
       </c>
       <c r="E69">
-        <v>0.0001771691239585729</v>
+        <v>1.771691239585729E-4</v>
       </c>
       <c r="F69">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G69">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2044,22 +2134,22 @@
         <v>22</v>
       </c>
       <c r="C70">
-        <v>0.03492443132033453</v>
+        <v>3.4924431320334529E-2</v>
       </c>
       <c r="D70">
-        <v>24.92709878732786</v>
+        <v>24.927098787327861</v>
       </c>
       <c r="E70">
-        <v>0.0002315101972580786</v>
+        <v>2.3151019725807859E-4</v>
       </c>
       <c r="F70">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G70">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2067,19 +2157,19 @@
         <v>23</v>
       </c>
       <c r="C71">
-        <v>0.03158653520547702</v>
+        <v>3.1586535205477023E-2</v>
       </c>
       <c r="D71">
-        <v>22.54469589481617</v>
+        <v>22.544695894816169</v>
       </c>
       <c r="E71">
-        <v>0.001042870866894446</v>
+        <v>1.042870866894446E-3</v>
       </c>
       <c r="F71">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G71">
-        <v>0.2045781121629859</v>
+        <v>0.20457811216298591</v>
       </c>
     </row>
   </sheetData>
